--- a/GeoSimModel/data/f_table.xlsx
+++ b/GeoSimModel/data/f_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -677,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>30</v>
       </c>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>35</v>
       </c>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -932,6 +932,390 @@
       <c r="J16" s="1">
         <v>7</v>
       </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
